--- a/data/trans_dic/P19C06-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C06-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P19C06-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C06-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,49%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,82; 2,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>0,25; 1,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,36; 2,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,48; 3,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,47; 1,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,72; 2,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,84; 3,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0,86; 2,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,72; 1,75</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0,6; 1,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,83; 2,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,94; 2,47</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,79%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,45; 1,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,63; 1,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,82; 2,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,4; 1,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0,66; 1,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>1,0; 2,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,72; 1,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,54; 1,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,68; 1,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,94; 1,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,9; 1,73</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>0,57; 1,11</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,08%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0,33; 2,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>0,45; 2,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,21; 2,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,24; 1,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0,73; 3,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0,53; 3,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0,73; 3,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,79; 2,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,7; 2,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,74; 2,37</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,6; 1,99</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,67; 1,69</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,98%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0,73; 1,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,63; 1,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0,8; 1,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,54; 1,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,79; 1,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,04; 1,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,97; 1,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>0,85; 1,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>0,86; 1,46</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>0,95; 1,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>0,95; 1,59</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>0,78; 1,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C06-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C06-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,67%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,52</t>
+          <t>0,52; 5,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,46</t>
+          <t>0,89; 2,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,47</t>
+          <t>1,01; 3,12</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,72%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,2</t>
+          <t>0,34; 1,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,32</t>
+          <t>0,46; 1,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 1,11</t>
+          <t>0,5; 1,03</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,06%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,78</t>
+          <t>0,24; 1,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,42</t>
+          <t>0,8; 2,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,69</t>
+          <t>0,65; 1,64</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,14 +1111,14 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>1,11%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>1,11%</t>
-        </is>
-      </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
           <t>1,21%</t>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,95%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,26</t>
+          <t>0,5; 1,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,85; 1,51</t>
+          <t>0,79; 1,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,25</t>
+          <t>0,72; 1,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C06-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C06-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,79</t>
+          <t>0,74; 2,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,51</t>
+          <t>0,26; 1,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,4</t>
+          <t>0,4; 2,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 5,38</t>
+          <t>0,6; 5,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,67</t>
+          <t>0,41; 1,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,02</t>
+          <t>0,72; 2,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,0</t>
+          <t>0,83; 2,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,56</t>
+          <t>0,89; 2,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,75</t>
+          <t>0,71; 1,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,55</t>
+          <t>0,64; 1,64</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,35</t>
+          <t>0,86; 2,31</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,12</t>
+          <t>1,03; 3,2</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,5</t>
+          <t>0,44; 1,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,71</t>
+          <t>0,58; 1,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,05</t>
+          <t>0,81; 2,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,16</t>
+          <t>0,36; 1,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,86</t>
+          <t>0,64; 1,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,26</t>
+          <t>0,99; 2,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,77</t>
+          <t>0,71; 1,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,19</t>
+          <t>0,49; 1,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 1,44</t>
+          <t>0,66; 1,45</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,94; 1,83</t>
+          <t>0,89; 1,7</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,9; 1,73</t>
+          <t>0,91; 1,73</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 1,03</t>
+          <t>0,49; 1,02</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,49</t>
+          <t>0,22; 2,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,77</t>
+          <t>0,48; 2,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,0</t>
+          <t>0,21; 1,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,74</t>
+          <t>0,23; 1,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,52</t>
+          <t>0,74; 3,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,17</t>
+          <t>0,52; 3,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,19</t>
+          <t>0,65; 3,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,39</t>
+          <t>0,77; 2,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,35</t>
+          <t>0,72; 2,27</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,37</t>
+          <t>0,72; 2,37</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,99</t>
+          <t>0,61; 2,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,64</t>
+          <t>0,66; 1,65</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,61</t>
+          <t>0,74; 1,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,44</t>
+          <t>0,64; 1,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,72</t>
+          <t>0,79; 1,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 1,36</t>
+          <t>0,5; 1,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,57</t>
+          <t>0,8; 1,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,96</t>
+          <t>1,08; 1,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,83</t>
+          <t>0,93; 1,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,44</t>
+          <t>0,8; 1,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 1,46</t>
+          <t>0,86; 1,45</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 1,53</t>
+          <t>0,94; 1,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 1,59</t>
+          <t>0,97; 1,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,24</t>
+          <t>0,73; 1,27</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10768</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5127</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4875</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>8767</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8407</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14383</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10368</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11320</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>19175</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>19510</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>15243</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>20087</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5123; 19178</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2005; 12246</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1814; 10811</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2917; 26615</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3967; 15086</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8118; 23411</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5309; 18920</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6402; 18270</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>11698; 28721</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12133; 31365</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9434; 25344</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12384; 38615</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>11694</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>17618</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>22701</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>14793</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>15493</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>24438</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>19838</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>17150</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>27187</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>42055</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>42539</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>31942</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5811; 19278</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9825; 29940</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13736; 34806</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7939; 25818</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8792; 24762</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>15787; 36235</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>12184; 30061</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10699; 26114</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>17729; 39003</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>29257; 55720</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>31075; 58857</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>21655; 45389</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4474</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5534</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4027</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4267</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7086</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6346</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8073</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9303</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>11561</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>11880</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>12100</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>13570</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1009; 11579</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2137; 11962</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1046; 9933</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1429; 9944</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3019; 13961</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2191; 12969</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3311; 15750</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5026; 15812</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6178; 19527</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6226; 20525</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6180; 21085</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8438; 21157</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>26937</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>28279</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>31603</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>27826</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>30986</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>45167</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>38279</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>37773</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>57923</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>73445</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>69882</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>65599</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>18164; 38256</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>18672; 41948</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>20970; 44101</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>16883; 46117</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>21919; 43006</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>33776; 60274</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>26591; 51009</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>28596; 51838</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>44581; 75159</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>56933; 92352</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>53457; 87177</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>50802; 87861</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>